--- a/_Data_Management_Files/2019_game_data_05.xlsx
+++ b/_Data_Management_Files/2019_game_data_05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\COM201\91892_Databases\91892-database-practice-grocottk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kahlildistractionless/Documents/COM201/91892_Databases/91892-database-practice-grocottk/_Data_Management_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BB9CCD-CDA1-44BC-9794-9731C9F42831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280168AD-0E6F-DF4C-82E7-890391CA81AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14865" yWindow="11925" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -15921,92 +15921,92 @@
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="75.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>875</v>
       </c>
@@ -16025,12 +16025,12 @@
   <dimension ref="A1:L445"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1408</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16562,7 +16562,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17208,7 +17208,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18462,7 +18462,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18500,7 +18500,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18690,7 +18690,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -20020,7 +20020,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -20172,7 +20172,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -20210,7 +20210,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -20362,7 +20362,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -20514,7 +20514,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -20742,7 +20742,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -20856,7 +20856,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -20932,7 +20932,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -21084,7 +21084,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -21160,7 +21160,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -21198,7 +21198,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -21312,7 +21312,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -21388,7 +21388,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -21502,7 +21502,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -21578,7 +21578,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -21654,7 +21654,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -21692,7 +21692,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -21730,7 +21730,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -21806,7 +21806,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -21844,7 +21844,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -21958,7 +21958,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -21996,7 +21996,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -22034,7 +22034,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -22072,7 +22072,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -22110,7 +22110,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -22224,7 +22224,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -22262,7 +22262,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -22300,7 +22300,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -22338,7 +22338,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -22414,7 +22414,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -22452,7 +22452,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -22490,7 +22490,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -22528,7 +22528,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -22604,7 +22604,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -22642,7 +22642,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -22794,7 +22794,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -22832,7 +22832,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -22870,7 +22870,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -22908,7 +22908,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -22984,7 +22984,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -23060,7 +23060,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -23098,7 +23098,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -23174,7 +23174,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -23212,7 +23212,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -23288,7 +23288,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -23326,7 +23326,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -23364,7 +23364,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -23440,7 +23440,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -23478,7 +23478,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -23516,7 +23516,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -23630,7 +23630,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -23706,7 +23706,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -23744,7 +23744,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -23782,7 +23782,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -23820,7 +23820,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -23858,7 +23858,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -23934,7 +23934,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -23972,7 +23972,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -24010,7 +24010,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -24048,7 +24048,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -24086,7 +24086,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -24124,7 +24124,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -24162,7 +24162,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -24200,7 +24200,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -24314,7 +24314,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -24390,7 +24390,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -24428,7 +24428,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -24466,7 +24466,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -24504,7 +24504,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -24542,7 +24542,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -24580,7 +24580,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -24618,7 +24618,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -24656,7 +24656,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -24694,7 +24694,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -24732,7 +24732,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -24770,7 +24770,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -24808,7 +24808,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -24846,7 +24846,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -24884,7 +24884,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -24922,7 +24922,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -24960,7 +24960,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -25036,7 +25036,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -25074,7 +25074,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -25150,7 +25150,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -25188,7 +25188,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -25226,7 +25226,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -25264,7 +25264,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>1067</v>
       </c>
@@ -25293,7 +25293,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>1067</v>
       </c>
@@ -25322,7 +25322,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>1067</v>
       </c>
@@ -25351,7 +25351,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>1067</v>
       </c>
@@ -25380,7 +25380,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>1067</v>
       </c>
@@ -25409,7 +25409,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>1067</v>
       </c>
@@ -25438,7 +25438,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>1067</v>
       </c>
@@ -25467,7 +25467,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>1067</v>
       </c>
@@ -25496,7 +25496,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>1067</v>
       </c>
@@ -25525,7 +25525,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>1067</v>
       </c>
@@ -25554,7 +25554,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>1067</v>
       </c>
@@ -25583,7 +25583,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>1067</v>
       </c>
@@ -25612,7 +25612,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>1067</v>
       </c>
@@ -25641,7 +25641,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>1067</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="258" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>1067</v>
       </c>
@@ -25699,7 +25699,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>1067</v>
       </c>
@@ -25728,7 +25728,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>1067</v>
       </c>
@@ -25757,7 +25757,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="261" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>1067</v>
       </c>
@@ -25786,7 +25786,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="262" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>1067</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="263" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>1067</v>
       </c>
@@ -25844,7 +25844,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="264" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>1067</v>
       </c>
@@ -25873,7 +25873,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="265" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>1067</v>
       </c>
@@ -25902,7 +25902,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="266" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>1067</v>
       </c>
@@ -25931,7 +25931,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="267" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>1067</v>
       </c>
@@ -25960,7 +25960,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="268" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>1067</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="269" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>1067</v>
       </c>
@@ -26018,7 +26018,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="270" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>1067</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="271" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>1067</v>
       </c>
@@ -26076,7 +26076,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="272" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>1067</v>
       </c>
@@ -26105,7 +26105,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="273" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>1067</v>
       </c>
@@ -26134,7 +26134,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="274" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>1067</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="275" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>1067</v>
       </c>
@@ -26192,7 +26192,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="276" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>1067</v>
       </c>
@@ -26221,7 +26221,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="277" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>1067</v>
       </c>
@@ -26250,7 +26250,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="278" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>1067</v>
       </c>
@@ -26279,7 +26279,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="279" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>1067</v>
       </c>
@@ -26308,7 +26308,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="280" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>1067</v>
       </c>
@@ -26337,7 +26337,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="281" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>1067</v>
       </c>
@@ -26366,7 +26366,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="282" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>1067</v>
       </c>
@@ -26395,7 +26395,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="283" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
         <v>1067</v>
       </c>
@@ -26424,7 +26424,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="284" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>1067</v>
       </c>
@@ -26453,7 +26453,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="285" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>1067</v>
       </c>
@@ -26482,7 +26482,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="286" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
         <v>1067</v>
       </c>
@@ -26511,7 +26511,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="287" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>1067</v>
       </c>
@@ -26540,7 +26540,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="288" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>1067</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="289" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>1067</v>
       </c>
@@ -26598,7 +26598,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="290" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
         <v>1067</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="291" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>1067</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="292" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>1067</v>
       </c>
@@ -26685,7 +26685,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="293" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>1067</v>
       </c>
@@ -26714,7 +26714,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="294" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>1067</v>
       </c>
@@ -26743,7 +26743,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="295" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
         <v>1067</v>
       </c>
@@ -26772,7 +26772,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="296" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>1067</v>
       </c>
@@ -26801,7 +26801,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="297" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>1067</v>
       </c>
@@ -26830,7 +26830,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="298" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>1067</v>
       </c>
@@ -26859,7 +26859,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="299" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>1067</v>
       </c>
@@ -26888,7 +26888,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="300" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>1067</v>
       </c>
@@ -26917,7 +26917,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="301" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
         <v>1067</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="302" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>1067</v>
       </c>
@@ -26975,7 +26975,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="303" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>1067</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="304" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>1067</v>
       </c>
@@ -27033,7 +27033,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="305" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>1067</v>
       </c>
@@ -27062,7 +27062,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="306" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>1067</v>
       </c>
@@ -27091,7 +27091,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="307" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>1067</v>
       </c>
@@ -27120,7 +27120,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="308" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>1067</v>
       </c>
@@ -27149,7 +27149,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="309" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>1067</v>
       </c>
@@ -27178,7 +27178,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="310" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>1067</v>
       </c>
@@ -27207,7 +27207,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="311" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>1067</v>
       </c>
@@ -27236,7 +27236,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="312" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>1067</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="313" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>1067</v>
       </c>
@@ -27294,7 +27294,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="314" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>1067</v>
       </c>
@@ -27323,7 +27323,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="315" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>1067</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="316" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>1067</v>
       </c>
@@ -27381,7 +27381,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="317" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>1067</v>
       </c>
@@ -27410,7 +27410,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="318" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>1067</v>
       </c>
@@ -27439,7 +27439,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="319" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>1067</v>
       </c>
@@ -27468,7 +27468,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="320" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>1067</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="321" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>1067</v>
       </c>
@@ -27526,7 +27526,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="322" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>1067</v>
       </c>
@@ -27555,7 +27555,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="323" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>1067</v>
       </c>
@@ -27584,7 +27584,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="324" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>1067</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="325" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>1067</v>
       </c>
@@ -27642,7 +27642,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="326" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>1067</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="327" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>1067</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="328" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>1067</v>
       </c>
@@ -27729,7 +27729,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="329" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>1067</v>
       </c>
@@ -27758,7 +27758,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="330" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>1067</v>
       </c>
@@ -27787,7 +27787,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="331" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>1067</v>
       </c>
@@ -27816,7 +27816,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="332" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>1067</v>
       </c>
@@ -27845,7 +27845,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="333" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>1067</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="334" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>1067</v>
       </c>
@@ -27903,7 +27903,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="335" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>1067</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="336" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>1067</v>
       </c>
@@ -27961,7 +27961,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="337" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>1067</v>
       </c>
@@ -27990,7 +27990,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="338" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>1067</v>
       </c>
@@ -28019,7 +28019,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="339" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>1067</v>
       </c>
@@ -28048,7 +28048,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="340" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>1067</v>
       </c>
@@ -28077,7 +28077,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="341" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>1067</v>
       </c>
@@ -28106,7 +28106,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="342" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>1067</v>
       </c>
@@ -28135,7 +28135,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="343" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>1067</v>
       </c>
@@ -28164,7 +28164,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="344" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>1067</v>
       </c>
@@ -28193,7 +28193,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="345" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>1067</v>
       </c>
@@ -28222,7 +28222,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="346" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>1067</v>
       </c>
@@ -28251,7 +28251,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="347" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>1067</v>
       </c>
@@ -28280,7 +28280,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="348" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>1067</v>
       </c>
@@ -28309,7 +28309,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="349" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>1067</v>
       </c>
@@ -28338,7 +28338,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="350" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>1067</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="351" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>1067</v>
       </c>
@@ -28396,7 +28396,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="352" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>1067</v>
       </c>
@@ -28425,7 +28425,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="353" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>1067</v>
       </c>
@@ -28454,7 +28454,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="354" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>1067</v>
       </c>
@@ -28483,7 +28483,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="355" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>1067</v>
       </c>
@@ -28512,7 +28512,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="356" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>1067</v>
       </c>
@@ -28541,7 +28541,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="357" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>1067</v>
       </c>
@@ -28570,7 +28570,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="358" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>1067</v>
       </c>
@@ -28599,7 +28599,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="359" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>1067</v>
       </c>
@@ -28628,7 +28628,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="360" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>1067</v>
       </c>
@@ -28657,7 +28657,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="361" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>1067</v>
       </c>
@@ -28686,7 +28686,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="362" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>1067</v>
       </c>
@@ -28715,7 +28715,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="363" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>1067</v>
       </c>
@@ -28744,7 +28744,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="364" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>1067</v>
       </c>
@@ -28773,7 +28773,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="365" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>1067</v>
       </c>
@@ -28802,7 +28802,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="366" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>1067</v>
       </c>
@@ -28831,7 +28831,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="367" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>1067</v>
       </c>
@@ -28860,7 +28860,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="368" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>1067</v>
       </c>
@@ -28889,7 +28889,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="369" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>1067</v>
       </c>
@@ -28918,7 +28918,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="370" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>1067</v>
       </c>
@@ -28947,7 +28947,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="371" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>1067</v>
       </c>
@@ -28976,7 +28976,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="372" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>1067</v>
       </c>
@@ -29005,7 +29005,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="373" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>1067</v>
       </c>
@@ -29034,7 +29034,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="374" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>1067</v>
       </c>
@@ -29063,7 +29063,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="375" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>1067</v>
       </c>
@@ -29092,7 +29092,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="376" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>1067</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="377" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>1067</v>
       </c>
@@ -29150,7 +29150,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="378" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>1067</v>
       </c>
@@ -29179,7 +29179,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="379" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>1067</v>
       </c>
@@ -29208,7 +29208,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="380" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>1067</v>
       </c>
@@ -29237,7 +29237,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="381" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>1067</v>
       </c>
@@ -29266,7 +29266,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="382" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>1067</v>
       </c>
@@ -29295,7 +29295,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="383" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>1067</v>
       </c>
@@ -29324,7 +29324,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="384" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>1067</v>
       </c>
@@ -29353,7 +29353,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="385" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>1067</v>
       </c>
@@ -29382,7 +29382,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="386" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>1067</v>
       </c>
@@ -29411,7 +29411,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="387" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>1067</v>
       </c>
@@ -29440,7 +29440,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="388" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>1067</v>
       </c>
@@ -29469,7 +29469,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="389" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>1067</v>
       </c>
@@ -29498,7 +29498,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="390" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>1067</v>
       </c>
@@ -29527,7 +29527,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="391" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>1067</v>
       </c>
@@ -29556,7 +29556,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="392" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>1067</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="393" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>1067</v>
       </c>
@@ -29614,7 +29614,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="394" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>1067</v>
       </c>
@@ -29643,7 +29643,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="395" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>1067</v>
       </c>
@@ -29672,7 +29672,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="396" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>1067</v>
       </c>
@@ -29701,7 +29701,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="397" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>1067</v>
       </c>
@@ -29730,7 +29730,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="398" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>1067</v>
       </c>
@@ -29759,7 +29759,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="399" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>1067</v>
       </c>
@@ -29788,7 +29788,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="400" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>1067</v>
       </c>
@@ -29817,7 +29817,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="401" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>1067</v>
       </c>
@@ -29846,7 +29846,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="402" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>1067</v>
       </c>
@@ -29875,7 +29875,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="403" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>1067</v>
       </c>
@@ -29904,7 +29904,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="404" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
         <v>1067</v>
       </c>
@@ -29933,7 +29933,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="405" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>1067</v>
       </c>
@@ -29962,7 +29962,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="406" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>1067</v>
       </c>
@@ -29991,7 +29991,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="407" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>1067</v>
       </c>
@@ -30020,7 +30020,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="408" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>1067</v>
       </c>
@@ -30049,7 +30049,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="409" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>1067</v>
       </c>
@@ -30078,7 +30078,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="410" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>1067</v>
       </c>
@@ -30107,7 +30107,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="411" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>1067</v>
       </c>
@@ -30136,7 +30136,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="412" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
         <v>1067</v>
       </c>
@@ -30165,7 +30165,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="413" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>1067</v>
       </c>
@@ -30194,7 +30194,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="414" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>1067</v>
       </c>
@@ -30223,7 +30223,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="415" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>1067</v>
       </c>
@@ -30252,7 +30252,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="416" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>1067</v>
       </c>
@@ -30281,7 +30281,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="417" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>1067</v>
       </c>
@@ -30310,7 +30310,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="418" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>1067</v>
       </c>
@@ -30339,7 +30339,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="419" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>1067</v>
       </c>
@@ -30368,7 +30368,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="420" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>1067</v>
       </c>
@@ -30397,7 +30397,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="421" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>1067</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="422" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>1067</v>
       </c>
@@ -30455,7 +30455,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="423" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>1067</v>
       </c>
@@ -30484,7 +30484,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="424" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>1067</v>
       </c>
@@ -30513,7 +30513,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="425" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>1067</v>
       </c>
@@ -30542,7 +30542,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="426" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>1067</v>
       </c>
@@ -30571,7 +30571,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="427" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>1067</v>
       </c>
@@ -30600,7 +30600,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="428" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>1067</v>
       </c>
@@ -30629,7 +30629,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="429" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>1067</v>
       </c>
@@ -30658,7 +30658,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="430" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>1067</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="431" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>1067</v>
       </c>
@@ -30716,7 +30716,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="432" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>1067</v>
       </c>
@@ -30745,7 +30745,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="433" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>1067</v>
       </c>
@@ -30774,7 +30774,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="434" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>1067</v>
       </c>
@@ -30803,7 +30803,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="435" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>1067</v>
       </c>
@@ -30832,7 +30832,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="436" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>1067</v>
       </c>
@@ -30861,7 +30861,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="437" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>1067</v>
       </c>
@@ -30890,7 +30890,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="438" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>1067</v>
       </c>
@@ -30919,7 +30919,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="439" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>1067</v>
       </c>
@@ -30948,7 +30948,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="440" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>1067</v>
       </c>
@@ -30977,7 +30977,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="441" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>1067</v>
       </c>
@@ -31006,7 +31006,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="442" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>1067</v>
       </c>
@@ -31035,7 +31035,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="443" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>1067</v>
       </c>
@@ -31064,7 +31064,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="444" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>1067</v>
       </c>
@@ -31093,7 +31093,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="445" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>1067</v>
       </c>
@@ -31135,13 +31135,13 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>[1]trimmed_game_data!A1</f>
         <v>ID</v>
@@ -31199,7 +31199,7 @@
         <v>Genre</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>LEN([1]trimmed_game_data!A2)</f>
         <v>1</v>
@@ -31266,7 +31266,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>LEN([1]trimmed_game_data!A3)</f>
         <v>1</v>
@@ -31334,7 +31334,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>LEN([1]trimmed_game_data!A4)</f>
         <v>1</v>
@@ -31399,7 +31399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>LEN([1]trimmed_game_data!A5)</f>
         <v>1</v>
@@ -31464,7 +31464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>LEN([1]trimmed_game_data!A6)</f>
         <v>1</v>
@@ -31529,7 +31529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>LEN([1]trimmed_game_data!A7)</f>
         <v>1</v>
@@ -31594,7 +31594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>LEN([1]trimmed_game_data!A8)</f>
         <v>1</v>
@@ -31659,7 +31659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>LEN([1]trimmed_game_data!A9)</f>
         <v>1</v>
@@ -31724,7 +31724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>LEN([1]trimmed_game_data!A10)</f>
         <v>1</v>
@@ -31792,7 +31792,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>LEN([1]trimmed_game_data!A11)</f>
         <v>2</v>
@@ -31857,7 +31857,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>LEN([1]trimmed_game_data!A12)</f>
         <v>2</v>
@@ -31925,7 +31925,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>LEN([1]trimmed_game_data!A13)</f>
         <v>2</v>
@@ -31990,7 +31990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>LEN([1]trimmed_game_data!A14)</f>
         <v>2</v>
@@ -32055,7 +32055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>LEN([1]trimmed_game_data!A15)</f>
         <v>2</v>
@@ -32123,7 +32123,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>LEN([1]trimmed_game_data!A16)</f>
         <v>2</v>
@@ -32188,7 +32188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>LEN([1]trimmed_game_data!A17)</f>
         <v>2</v>
@@ -32246,7 +32246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>LEN([1]trimmed_game_data!A18)</f>
         <v>2</v>
@@ -32304,7 +32304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>LEN([1]trimmed_game_data!A19)</f>
         <v>2</v>
@@ -32362,7 +32362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>LEN([1]trimmed_game_data!A20)</f>
         <v>2</v>
@@ -32420,7 +32420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>LEN([1]trimmed_game_data!A21)</f>
         <v>2</v>
@@ -32478,7 +32478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>LEN([1]trimmed_game_data!A22)</f>
         <v>2</v>
@@ -32536,7 +32536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>LEN([1]trimmed_game_data!A23)</f>
         <v>2</v>
@@ -32594,7 +32594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>LEN([1]trimmed_game_data!A24)</f>
         <v>2</v>
@@ -32652,7 +32652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>LEN([1]trimmed_game_data!A25)</f>
         <v>2</v>
@@ -32710,7 +32710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>LEN([1]trimmed_game_data!A26)</f>
         <v>2</v>
@@ -32768,7 +32768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>LEN([1]trimmed_game_data!A27)</f>
         <v>2</v>
@@ -32826,7 +32826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>LEN([1]trimmed_game_data!A28)</f>
         <v>2</v>
@@ -32884,7 +32884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>LEN([1]trimmed_game_data!A29)</f>
         <v>2</v>
@@ -32942,7 +32942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>LEN([1]trimmed_game_data!A30)</f>
         <v>2</v>
@@ -33000,7 +33000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>LEN([1]trimmed_game_data!A31)</f>
         <v>2</v>
@@ -33058,7 +33058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>LEN([1]trimmed_game_data!A32)</f>
         <v>2</v>
@@ -33116,7 +33116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>LEN([1]trimmed_game_data!A33)</f>
         <v>2</v>
@@ -33174,7 +33174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>LEN([1]trimmed_game_data!A34)</f>
         <v>2</v>
@@ -33232,7 +33232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>LEN([1]trimmed_game_data!A35)</f>
         <v>2</v>
@@ -33290,7 +33290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>LEN([1]trimmed_game_data!A36)</f>
         <v>2</v>
@@ -33348,7 +33348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>LEN([1]trimmed_game_data!A37)</f>
         <v>2</v>
@@ -33406,7 +33406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>LEN([1]trimmed_game_data!A38)</f>
         <v>2</v>
@@ -33464,7 +33464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>LEN([1]trimmed_game_data!A39)</f>
         <v>2</v>
@@ -33522,7 +33522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>LEN([1]trimmed_game_data!A40)</f>
         <v>2</v>
@@ -33580,7 +33580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>LEN([1]trimmed_game_data!A41)</f>
         <v>2</v>
@@ -33638,7 +33638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>LEN([1]trimmed_game_data!A42)</f>
         <v>2</v>
@@ -33696,7 +33696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>LEN([1]trimmed_game_data!A43)</f>
         <v>2</v>
@@ -33754,7 +33754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>LEN([1]trimmed_game_data!A44)</f>
         <v>2</v>
@@ -33812,7 +33812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>LEN([1]trimmed_game_data!A45)</f>
         <v>2</v>
@@ -33870,7 +33870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>LEN([1]trimmed_game_data!A46)</f>
         <v>2</v>
@@ -33928,7 +33928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <f>LEN([1]trimmed_game_data!A47)</f>
         <v>2</v>
@@ -33986,7 +33986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>LEN([1]trimmed_game_data!A48)</f>
         <v>2</v>
@@ -34044,7 +34044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>LEN([1]trimmed_game_data!A49)</f>
         <v>2</v>
@@ -34102,7 +34102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <f>LEN([1]trimmed_game_data!A50)</f>
         <v>2</v>
@@ -34160,7 +34160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>LEN([1]trimmed_game_data!A51)</f>
         <v>2</v>
@@ -34218,7 +34218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>LEN([1]trimmed_game_data!A52)</f>
         <v>2</v>
@@ -34276,7 +34276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <f>LEN([1]trimmed_game_data!A53)</f>
         <v>2</v>
@@ -34334,7 +34334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>LEN([1]trimmed_game_data!A54)</f>
         <v>2</v>
@@ -34392,7 +34392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <f>LEN([1]trimmed_game_data!A55)</f>
         <v>2</v>
@@ -34450,7 +34450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <f>LEN([1]trimmed_game_data!A56)</f>
         <v>2</v>
@@ -34508,7 +34508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <f>LEN([1]trimmed_game_data!A57)</f>
         <v>2</v>
@@ -34566,7 +34566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <f>LEN([1]trimmed_game_data!A58)</f>
         <v>2</v>
@@ -34624,7 +34624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <f>LEN([1]trimmed_game_data!A59)</f>
         <v>2</v>
@@ -34682,7 +34682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <f>LEN([1]trimmed_game_data!A60)</f>
         <v>2</v>
@@ -34740,7 +34740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <f>LEN([1]trimmed_game_data!A61)</f>
         <v>2</v>
@@ -34798,7 +34798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <f>LEN([1]trimmed_game_data!A62)</f>
         <v>2</v>
@@ -34856,7 +34856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <f>LEN([1]trimmed_game_data!A63)</f>
         <v>2</v>
@@ -34914,7 +34914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <f>LEN([1]trimmed_game_data!A64)</f>
         <v>2</v>
@@ -34972,7 +34972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <f>LEN([1]trimmed_game_data!A65)</f>
         <v>2</v>
@@ -35030,7 +35030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <f>LEN([1]trimmed_game_data!A66)</f>
         <v>2</v>
@@ -35088,7 +35088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <f>LEN([1]trimmed_game_data!A67)</f>
         <v>2</v>
@@ -35146,7 +35146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <f>LEN([1]trimmed_game_data!A68)</f>
         <v>2</v>
@@ -35204,7 +35204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <f>LEN([1]trimmed_game_data!A69)</f>
         <v>2</v>
@@ -35262,7 +35262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <f>LEN([1]trimmed_game_data!A70)</f>
         <v>2</v>
@@ -35320,7 +35320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <f>LEN([1]trimmed_game_data!A71)</f>
         <v>2</v>
@@ -35378,7 +35378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <f>LEN([1]trimmed_game_data!A72)</f>
         <v>2</v>
@@ -35436,7 +35436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <f>LEN([1]trimmed_game_data!A73)</f>
         <v>2</v>
@@ -35494,7 +35494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <f>LEN([1]trimmed_game_data!A74)</f>
         <v>2</v>
@@ -35552,7 +35552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <f>LEN([1]trimmed_game_data!A75)</f>
         <v>2</v>
@@ -35610,7 +35610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <f>LEN([1]trimmed_game_data!A76)</f>
         <v>2</v>
@@ -35668,7 +35668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <f>LEN([1]trimmed_game_data!A77)</f>
         <v>2</v>
@@ -35726,7 +35726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <f>LEN([1]trimmed_game_data!A78)</f>
         <v>2</v>
@@ -35784,7 +35784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <f>LEN([1]trimmed_game_data!A79)</f>
         <v>2</v>
@@ -35842,7 +35842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <f>LEN([1]trimmed_game_data!A80)</f>
         <v>2</v>
@@ -35900,7 +35900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <f>LEN([1]trimmed_game_data!A81)</f>
         <v>2</v>
@@ -35958,7 +35958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <f>LEN([1]trimmed_game_data!A82)</f>
         <v>2</v>
@@ -36016,7 +36016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <f>LEN([1]trimmed_game_data!A83)</f>
         <v>2</v>
@@ -36074,7 +36074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <f>LEN([1]trimmed_game_data!A84)</f>
         <v>2</v>
@@ -36132,7 +36132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <f>LEN([1]trimmed_game_data!A85)</f>
         <v>2</v>
@@ -36190,7 +36190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <f>LEN([1]trimmed_game_data!A86)</f>
         <v>2</v>
@@ -36248,7 +36248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <f>LEN([1]trimmed_game_data!A87)</f>
         <v>2</v>
@@ -36306,7 +36306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <f>LEN([1]trimmed_game_data!A88)</f>
         <v>2</v>
@@ -36364,7 +36364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <f>LEN([1]trimmed_game_data!A89)</f>
         <v>2</v>
@@ -36422,7 +36422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <f>LEN([1]trimmed_game_data!A90)</f>
         <v>2</v>
@@ -36480,7 +36480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <f>LEN([1]trimmed_game_data!A91)</f>
         <v>2</v>
@@ -36538,7 +36538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <f>LEN([1]trimmed_game_data!A92)</f>
         <v>2</v>
@@ -36596,7 +36596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <f>LEN([1]trimmed_game_data!A93)</f>
         <v>2</v>
@@ -36654,7 +36654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <f>LEN([1]trimmed_game_data!A94)</f>
         <v>2</v>
@@ -36712,7 +36712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <f>LEN([1]trimmed_game_data!A95)</f>
         <v>2</v>
@@ -36770,7 +36770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <f>LEN([1]trimmed_game_data!A96)</f>
         <v>2</v>
@@ -36828,7 +36828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <f>LEN([1]trimmed_game_data!A97)</f>
         <v>2</v>
@@ -36886,7 +36886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <f>LEN([1]trimmed_game_data!A98)</f>
         <v>2</v>
@@ -36944,7 +36944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <f>LEN([1]trimmed_game_data!A99)</f>
         <v>2</v>
@@ -37002,7 +37002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <f>LEN([1]trimmed_game_data!A100)</f>
         <v>2</v>
@@ -37060,7 +37060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <f>LEN([1]trimmed_game_data!A101)</f>
         <v>3</v>
@@ -37118,7 +37118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <f>LEN([1]trimmed_game_data!A102)</f>
         <v>3</v>
@@ -37176,7 +37176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <f>LEN([1]trimmed_game_data!A103)</f>
         <v>3</v>
@@ -37234,7 +37234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <f>LEN([1]trimmed_game_data!A104)</f>
         <v>3</v>
@@ -37292,7 +37292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <f>LEN([1]trimmed_game_data!A105)</f>
         <v>3</v>
@@ -37350,7 +37350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <f>LEN([1]trimmed_game_data!A106)</f>
         <v>3</v>
@@ -37408,7 +37408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <f>LEN([1]trimmed_game_data!A107)</f>
         <v>3</v>
@@ -37466,7 +37466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <f>LEN([1]trimmed_game_data!A108)</f>
         <v>3</v>
@@ -37524,7 +37524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <f>LEN([1]trimmed_game_data!A109)</f>
         <v>3</v>
@@ -37582,7 +37582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <f>LEN([1]trimmed_game_data!A110)</f>
         <v>3</v>
@@ -37640,7 +37640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <f>LEN([1]trimmed_game_data!A111)</f>
         <v>3</v>
@@ -37698,7 +37698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <f>LEN([1]trimmed_game_data!A112)</f>
         <v>3</v>
@@ -37756,7 +37756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <f>LEN([1]trimmed_game_data!A113)</f>
         <v>3</v>
@@ -37814,7 +37814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <f>LEN([1]trimmed_game_data!A114)</f>
         <v>3</v>
@@ -37872,7 +37872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <f>LEN([1]trimmed_game_data!A115)</f>
         <v>3</v>
@@ -37930,7 +37930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <f>LEN([1]trimmed_game_data!A116)</f>
         <v>3</v>
@@ -37988,7 +37988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <f>LEN([1]trimmed_game_data!A117)</f>
         <v>3</v>
@@ -38046,7 +38046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <f>LEN([1]trimmed_game_data!A118)</f>
         <v>3</v>
@@ -38104,7 +38104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <f>LEN([1]trimmed_game_data!A119)</f>
         <v>3</v>
@@ -38162,7 +38162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <f>LEN([1]trimmed_game_data!A120)</f>
         <v>3</v>
@@ -38220,7 +38220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <f>LEN([1]trimmed_game_data!A121)</f>
         <v>3</v>
@@ -38278,7 +38278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <f>LEN([1]trimmed_game_data!A122)</f>
         <v>3</v>
@@ -38336,7 +38336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <f>LEN([1]trimmed_game_data!A123)</f>
         <v>3</v>
@@ -38394,7 +38394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <f>LEN([1]trimmed_game_data!A124)</f>
         <v>3</v>
@@ -38452,7 +38452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <f>LEN([1]trimmed_game_data!A125)</f>
         <v>3</v>
@@ -38510,7 +38510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <f>LEN([1]trimmed_game_data!A126)</f>
         <v>3</v>
@@ -38568,7 +38568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <f>LEN([1]trimmed_game_data!A127)</f>
         <v>3</v>
@@ -38626,7 +38626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <f>LEN([1]trimmed_game_data!A128)</f>
         <v>3</v>
@@ -38684,7 +38684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <f>LEN([1]trimmed_game_data!A129)</f>
         <v>3</v>
@@ -38742,7 +38742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <f>LEN([1]trimmed_game_data!A130)</f>
         <v>3</v>
@@ -38800,7 +38800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <f>LEN([1]trimmed_game_data!A131)</f>
         <v>3</v>
@@ -38858,7 +38858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <f>LEN([1]trimmed_game_data!A132)</f>
         <v>3</v>
@@ -38916,7 +38916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <f>LEN([1]trimmed_game_data!A133)</f>
         <v>3</v>
@@ -38974,7 +38974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <f>LEN([1]trimmed_game_data!A134)</f>
         <v>3</v>
@@ -39032,7 +39032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <f>LEN([1]trimmed_game_data!A135)</f>
         <v>3</v>
@@ -39090,7 +39090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <f>LEN([1]trimmed_game_data!A136)</f>
         <v>3</v>
@@ -39148,7 +39148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <f>LEN([1]trimmed_game_data!A137)</f>
         <v>3</v>
@@ -39206,7 +39206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <f>LEN([1]trimmed_game_data!A138)</f>
         <v>3</v>
@@ -39264,7 +39264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <f>LEN([1]trimmed_game_data!A139)</f>
         <v>3</v>
@@ -39322,7 +39322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <f>LEN([1]trimmed_game_data!A140)</f>
         <v>3</v>
@@ -39380,7 +39380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <f>LEN([1]trimmed_game_data!A141)</f>
         <v>3</v>
@@ -39438,7 +39438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <f>LEN([1]trimmed_game_data!A142)</f>
         <v>3</v>
@@ -39496,7 +39496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <f>LEN([1]trimmed_game_data!A143)</f>
         <v>3</v>
@@ -39554,7 +39554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <f>LEN([1]trimmed_game_data!A144)</f>
         <v>3</v>
@@ -39612,7 +39612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <f>LEN([1]trimmed_game_data!A145)</f>
         <v>3</v>
@@ -39670,7 +39670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <f>LEN([1]trimmed_game_data!A146)</f>
         <v>3</v>
@@ -39728,7 +39728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <f>LEN([1]trimmed_game_data!A147)</f>
         <v>3</v>
@@ -39786,7 +39786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <f>LEN([1]trimmed_game_data!A148)</f>
         <v>3</v>
@@ -39844,7 +39844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <f>LEN([1]trimmed_game_data!A149)</f>
         <v>3</v>
@@ -39902,7 +39902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <f>LEN([1]trimmed_game_data!A150)</f>
         <v>3</v>
@@ -39960,7 +39960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <f>LEN([1]trimmed_game_data!A151)</f>
         <v>3</v>
@@ -40018,7 +40018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <f>LEN([1]trimmed_game_data!A152)</f>
         <v>3</v>
@@ -40076,7 +40076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <f>LEN([1]trimmed_game_data!A153)</f>
         <v>3</v>
@@ -40134,7 +40134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <f>LEN([1]trimmed_game_data!A154)</f>
         <v>3</v>
@@ -40192,7 +40192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <f>LEN([1]trimmed_game_data!A155)</f>
         <v>3</v>
@@ -40250,7 +40250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <f>LEN([1]trimmed_game_data!A156)</f>
         <v>3</v>
@@ -40308,7 +40308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <f>LEN([1]trimmed_game_data!A157)</f>
         <v>3</v>
@@ -40366,7 +40366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <f>LEN([1]trimmed_game_data!A158)</f>
         <v>3</v>
@@ -40424,7 +40424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <f>LEN([1]trimmed_game_data!A159)</f>
         <v>3</v>
@@ -40482,7 +40482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <f>LEN([1]trimmed_game_data!A160)</f>
         <v>3</v>
@@ -40540,7 +40540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <f>LEN([1]trimmed_game_data!A161)</f>
         <v>3</v>
@@ -40598,7 +40598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <f>LEN([1]trimmed_game_data!A162)</f>
         <v>3</v>
@@ -40656,7 +40656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <f>LEN([1]trimmed_game_data!A163)</f>
         <v>3</v>
@@ -40714,7 +40714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <f>LEN([1]trimmed_game_data!A164)</f>
         <v>3</v>
@@ -40772,7 +40772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <f>LEN([1]trimmed_game_data!A165)</f>
         <v>3</v>
@@ -40830,7 +40830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <f>LEN([1]trimmed_game_data!A166)</f>
         <v>3</v>
@@ -40888,7 +40888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <f>LEN([1]trimmed_game_data!A167)</f>
         <v>3</v>
@@ -40946,7 +40946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <f>LEN([1]trimmed_game_data!A168)</f>
         <v>3</v>
@@ -41004,7 +41004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <f>LEN([1]trimmed_game_data!A169)</f>
         <v>3</v>
@@ -41062,7 +41062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <f>LEN([1]trimmed_game_data!A170)</f>
         <v>3</v>
@@ -41120,7 +41120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <f>LEN([1]trimmed_game_data!A171)</f>
         <v>3</v>
@@ -41178,7 +41178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <f>LEN([1]trimmed_game_data!A172)</f>
         <v>3</v>
@@ -41236,7 +41236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <f>LEN([1]trimmed_game_data!A173)</f>
         <v>3</v>
@@ -41294,7 +41294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <f>LEN([1]trimmed_game_data!A174)</f>
         <v>3</v>
@@ -41352,7 +41352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <f>LEN([1]trimmed_game_data!A175)</f>
         <v>3</v>
@@ -41410,7 +41410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <f>LEN([1]trimmed_game_data!A176)</f>
         <v>3</v>
@@ -41468,7 +41468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <f>LEN([1]trimmed_game_data!A177)</f>
         <v>3</v>
@@ -41526,7 +41526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <f>LEN([1]trimmed_game_data!A178)</f>
         <v>3</v>
@@ -41584,7 +41584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <f>LEN([1]trimmed_game_data!A179)</f>
         <v>3</v>
@@ -41642,7 +41642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <f>LEN([1]trimmed_game_data!A180)</f>
         <v>3</v>
@@ -41700,7 +41700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <f>LEN([1]trimmed_game_data!A181)</f>
         <v>3</v>
@@ -41758,7 +41758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <f>LEN([1]trimmed_game_data!A182)</f>
         <v>3</v>
@@ -41816,7 +41816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <f>LEN([1]trimmed_game_data!A183)</f>
         <v>3</v>
@@ -41874,7 +41874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <f>LEN([1]trimmed_game_data!A184)</f>
         <v>3</v>
@@ -41932,7 +41932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <f>LEN([1]trimmed_game_data!A185)</f>
         <v>3</v>
@@ -41990,7 +41990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <f>LEN([1]trimmed_game_data!A186)</f>
         <v>3</v>
@@ -42048,7 +42048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <f>LEN([1]trimmed_game_data!A187)</f>
         <v>3</v>
@@ -42106,7 +42106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <f>LEN([1]trimmed_game_data!A188)</f>
         <v>3</v>
@@ -42164,7 +42164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <f>LEN([1]trimmed_game_data!A189)</f>
         <v>3</v>
@@ -42222,7 +42222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <f>LEN([1]trimmed_game_data!A190)</f>
         <v>3</v>
@@ -42280,7 +42280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <f>LEN([1]trimmed_game_data!A191)</f>
         <v>3</v>
@@ -42338,7 +42338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <f>LEN([1]trimmed_game_data!A192)</f>
         <v>3</v>
@@ -42396,7 +42396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <f>LEN([1]trimmed_game_data!A193)</f>
         <v>3</v>
@@ -42454,7 +42454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <f>LEN([1]trimmed_game_data!A194)</f>
         <v>3</v>
@@ -42512,7 +42512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <f>LEN([1]trimmed_game_data!A195)</f>
         <v>3</v>
@@ -42570,7 +42570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <f>LEN([1]trimmed_game_data!A196)</f>
         <v>3</v>
@@ -42628,7 +42628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <f>LEN([1]trimmed_game_data!A197)</f>
         <v>3</v>
@@ -42686,7 +42686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <f>LEN([1]trimmed_game_data!A198)</f>
         <v>3</v>
@@ -42744,7 +42744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <f>LEN([1]trimmed_game_data!A199)</f>
         <v>3</v>
@@ -42802,7 +42802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <f>LEN([1]trimmed_game_data!A200)</f>
         <v>3</v>
@@ -42860,7 +42860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <f>LEN([1]trimmed_game_data!A201)</f>
         <v>3</v>
@@ -42918,7 +42918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <f>LEN([1]trimmed_game_data!A202)</f>
         <v>3</v>
@@ -42976,7 +42976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <f>LEN([1]trimmed_game_data!A203)</f>
         <v>3</v>
@@ -43034,7 +43034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <f>LEN([1]trimmed_game_data!A204)</f>
         <v>3</v>
@@ -43092,7 +43092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <f>LEN([1]trimmed_game_data!A205)</f>
         <v>3</v>
@@ -43150,7 +43150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <f>LEN([1]trimmed_game_data!A206)</f>
         <v>3</v>
@@ -43208,7 +43208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <f>LEN([1]trimmed_game_data!A207)</f>
         <v>3</v>
@@ -43266,7 +43266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208">
         <f>LEN([1]trimmed_game_data!A208)</f>
         <v>3</v>
@@ -43324,7 +43324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <f>LEN([1]trimmed_game_data!A209)</f>
         <v>3</v>
@@ -43382,7 +43382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <f>LEN([1]trimmed_game_data!A210)</f>
         <v>3</v>
@@ -43440,7 +43440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <f>LEN([1]trimmed_game_data!A211)</f>
         <v>3</v>
@@ -43498,7 +43498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <f>LEN([1]trimmed_game_data!A212)</f>
         <v>3</v>
@@ -43556,7 +43556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <f>LEN([1]trimmed_game_data!A213)</f>
         <v>3</v>
@@ -43614,7 +43614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <f>LEN([1]trimmed_game_data!A214)</f>
         <v>3</v>
@@ -43672,7 +43672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <f>LEN([1]trimmed_game_data!A215)</f>
         <v>3</v>
@@ -43730,7 +43730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <f>LEN([1]trimmed_game_data!A216)</f>
         <v>3</v>
@@ -43788,7 +43788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <f>LEN([1]trimmed_game_data!A217)</f>
         <v>3</v>
@@ -43846,7 +43846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <f>LEN([1]trimmed_game_data!A218)</f>
         <v>3</v>
@@ -43904,7 +43904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <f>LEN([1]trimmed_game_data!A219)</f>
         <v>3</v>
@@ -43962,7 +43962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <f>LEN([1]trimmed_game_data!A220)</f>
         <v>3</v>
@@ -44020,7 +44020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221">
         <f>LEN([1]trimmed_game_data!A221)</f>
         <v>3</v>
@@ -44078,7 +44078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <f>LEN([1]trimmed_game_data!A222)</f>
         <v>3</v>
@@ -44136,7 +44136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <f>LEN([1]trimmed_game_data!A223)</f>
         <v>3</v>
@@ -44194,7 +44194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <f>LEN([1]trimmed_game_data!A224)</f>
         <v>3</v>
@@ -44252,7 +44252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <f>LEN([1]trimmed_game_data!A225)</f>
         <v>3</v>
@@ -44310,7 +44310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <f>LEN([1]trimmed_game_data!A226)</f>
         <v>3</v>
@@ -44368,7 +44368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <f>LEN([1]trimmed_game_data!A227)</f>
         <v>3</v>
@@ -44426,7 +44426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <f>LEN([1]trimmed_game_data!A228)</f>
         <v>3</v>
@@ -44484,7 +44484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <f>LEN([1]trimmed_game_data!A229)</f>
         <v>3</v>
@@ -44542,7 +44542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <f>LEN([1]trimmed_game_data!A230)</f>
         <v>3</v>
@@ -44600,7 +44600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <f>LEN([1]trimmed_game_data!A231)</f>
         <v>3</v>
@@ -44658,7 +44658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <f>LEN([1]trimmed_game_data!A232)</f>
         <v>3</v>
@@ -44716,7 +44716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <f>LEN([1]trimmed_game_data!A233)</f>
         <v>3</v>
@@ -44774,7 +44774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <f>LEN([1]trimmed_game_data!A234)</f>
         <v>3</v>
@@ -44832,7 +44832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <f>LEN([1]trimmed_game_data!A235)</f>
         <v>3</v>
@@ -44890,7 +44890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <f>LEN([1]trimmed_game_data!A236)</f>
         <v>3</v>
@@ -44948,7 +44948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <f>LEN([1]trimmed_game_data!A237)</f>
         <v>3</v>
@@ -45006,7 +45006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <f>LEN([1]trimmed_game_data!A238)</f>
         <v>3</v>
@@ -45064,7 +45064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <f>LEN([1]trimmed_game_data!A239)</f>
         <v>3</v>
@@ -45122,7 +45122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <f>LEN([1]trimmed_game_data!A240)</f>
         <v>3</v>
@@ -45180,7 +45180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241">
         <f>LEN([1]trimmed_game_data!A241)</f>
         <v>3</v>
@@ -45238,7 +45238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <f>LEN([1]trimmed_game_data!A242)</f>
         <v>3</v>
@@ -45296,7 +45296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243">
         <f>LEN([1]trimmed_game_data!A243)</f>
         <v>3</v>
@@ -45370,9 +45370,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1410</v>
       </c>
@@ -45380,7 +45380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -45388,7 +45388,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -45396,7 +45396,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -45404,7 +45404,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -45412,7 +45412,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -45420,7 +45420,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -45428,7 +45428,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -45436,7 +45436,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -45444,7 +45444,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -45452,7 +45452,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -45460,7 +45460,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -45468,7 +45468,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -45476,7 +45476,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -45484,7 +45484,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -45492,7 +45492,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -45500,7 +45500,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -45508,7 +45508,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -45516,7 +45516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -45524,7 +45524,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -45532,7 +45532,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -45540,7 +45540,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -45548,7 +45548,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -45556,7 +45556,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -45564,7 +45564,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -45572,7 +45572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -45580,7 +45580,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -45588,7 +45588,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -45596,7 +45596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -45604,7 +45604,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -45612,7 +45612,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -45620,7 +45620,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -45628,7 +45628,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -45636,7 +45636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -45644,7 +45644,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -45652,7 +45652,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -45660,7 +45660,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -45668,7 +45668,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -45676,7 +45676,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -45684,7 +45684,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -45692,7 +45692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -45700,7 +45700,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -45708,7 +45708,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -45716,7 +45716,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -45724,7 +45724,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -45732,7 +45732,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -45740,7 +45740,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -45748,7 +45748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -45756,7 +45756,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -45764,7 +45764,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -45772,7 +45772,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -45780,7 +45780,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -45788,7 +45788,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -45796,7 +45796,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -45804,7 +45804,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -45812,7 +45812,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -45820,7 +45820,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -45828,7 +45828,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -45836,7 +45836,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -45844,7 +45844,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -45852,7 +45852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -45860,7 +45860,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -45868,7 +45868,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -45876,7 +45876,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -45884,7 +45884,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -45892,7 +45892,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -45900,7 +45900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -45908,7 +45908,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -45916,7 +45916,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -45924,7 +45924,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -45932,7 +45932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -45940,7 +45940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -45948,7 +45948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -45956,7 +45956,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -45964,7 +45964,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -45972,7 +45972,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -45980,7 +45980,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -45988,7 +45988,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -45996,7 +45996,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -46004,7 +46004,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -46012,7 +46012,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -46020,7 +46020,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -46028,7 +46028,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -46044,7 +46044,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -46052,7 +46052,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -46060,7 +46060,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -46068,7 +46068,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -46076,7 +46076,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -46084,7 +46084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -46092,7 +46092,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -46100,7 +46100,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -46108,7 +46108,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -46116,7 +46116,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -46124,7 +46124,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -46132,7 +46132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -46140,7 +46140,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -46148,7 +46148,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -46156,7 +46156,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -46164,7 +46164,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -46172,7 +46172,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -46180,7 +46180,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -46188,7 +46188,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -46196,7 +46196,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -46204,7 +46204,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -46212,7 +46212,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -46220,7 +46220,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -46228,7 +46228,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -46236,7 +46236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -46244,7 +46244,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -46252,7 +46252,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -46260,7 +46260,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -46268,7 +46268,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -46276,7 +46276,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -46284,7 +46284,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -46292,7 +46292,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -46300,7 +46300,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -46308,7 +46308,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -46316,7 +46316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -46324,7 +46324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -46332,7 +46332,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -46340,7 +46340,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -46348,7 +46348,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -46356,7 +46356,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -46364,7 +46364,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -46372,7 +46372,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -46380,7 +46380,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -46388,7 +46388,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -46396,7 +46396,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -46404,7 +46404,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -46412,7 +46412,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -46420,7 +46420,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -46428,7 +46428,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -46436,7 +46436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -46444,7 +46444,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -46452,7 +46452,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -46460,7 +46460,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -46468,7 +46468,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -46476,7 +46476,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -46484,7 +46484,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -46492,7 +46492,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -46500,7 +46500,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -46508,7 +46508,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -46516,7 +46516,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -46524,7 +46524,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -46532,7 +46532,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -46540,7 +46540,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -46548,7 +46548,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -46556,7 +46556,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -46564,7 +46564,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -46572,7 +46572,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -46580,7 +46580,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -46588,7 +46588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -46596,7 +46596,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -46604,7 +46604,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -46612,7 +46612,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -46620,7 +46620,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -46628,7 +46628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -46636,7 +46636,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -46644,7 +46644,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -46652,7 +46652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -46660,7 +46660,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -46668,7 +46668,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -46676,7 +46676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -46684,7 +46684,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -46692,7 +46692,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -46700,7 +46700,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -46708,7 +46708,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -46716,7 +46716,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -46724,7 +46724,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -46732,7 +46732,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -46740,7 +46740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -46748,7 +46748,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -46756,7 +46756,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -46764,7 +46764,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -46772,7 +46772,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -46780,7 +46780,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -46788,7 +46788,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -46796,7 +46796,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -46804,7 +46804,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -46812,7 +46812,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -46820,7 +46820,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -46828,7 +46828,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -46836,7 +46836,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -46844,7 +46844,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -46852,7 +46852,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -46860,7 +46860,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -46868,7 +46868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -46876,7 +46876,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -46884,7 +46884,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -46892,7 +46892,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -46900,7 +46900,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -46908,7 +46908,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -46916,7 +46916,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -46924,7 +46924,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -46932,7 +46932,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B196" s="8"/>
     </row>
   </sheetData>
@@ -46951,12 +46951,12 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1409</v>
       </c>
@@ -46964,7 +46964,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -46972,7 +46972,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -46980,7 +46980,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -46988,7 +46988,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -46996,7 +46996,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -47004,7 +47004,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -47012,7 +47012,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -47020,7 +47020,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -47028,7 +47028,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -47036,7 +47036,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -47044,7 +47044,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -47052,7 +47052,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -47060,7 +47060,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -47068,7 +47068,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -47076,7 +47076,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -47084,7 +47084,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
